--- a/exercises/ex050.MF_pipe.xlsx
+++ b/exercises/ex050.MF_pipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C9D21F-427F-4211-886F-D2531354A03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8074C085-76A7-47C6-8510-8AAA0B2FD30A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -473,8 +475,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -700,7 +703,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -754,6 +757,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -996,79 +1000,79 @@
                   <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.583151083258013</c:v>
+                  <c:v>33.303193141725899</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.801765388082735</c:v>
+                  <c:v>41.000720038105285</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38.255229000040401</c:v>
+                  <c:v>48.692540775335956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.987304978782191</c:v>
+                  <c:v>56.378616137328635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.974945294964193</c:v>
+                  <c:v>64.058907598092716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.172257062530193</c:v>
+                  <c:v>71.733377315615215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.543503191890224</c:v>
+                  <c:v>79.401988126948595</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.059857245484253</c:v>
+                  <c:v>87.064703544283944</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.697069630984544</c:v>
+                  <c:v>94.721487751831091</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75.434830852226483</c:v>
+                  <c:v>102.37230560336373</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81.318514138118758</c:v>
+                  <c:v>110.01712262031398</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87.394050508029594</c:v>
+                  <c:v>117.65590499032363</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>93.647650767532141</c:v>
+                  <c:v>125.2886195661755</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100.06683777740484</c:v>
+                  <c:v>132.91523386504187</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.62019163752962</c:v>
+                  <c:v>140.53571606799906</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>113.19004748399115</c:v>
+                  <c:v>148.15003501976409</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>119.75811716090159</c:v>
+                  <c:v>155.75816022861827</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>126.32397571043576</c:v>
+                  <c:v>163.3600618664872</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>132.88726139443145</c:v>
+                  <c:v>170.95571076915209</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>139.44766362358564</c:v>
+                  <c:v>178.54507843657098</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>146.00491363875426</c:v>
+                  <c:v>186.12813703329178</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>152.55877722469904</c:v>
+                  <c:v>193.70485938894166</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>159.10904894740781</c:v>
+                  <c:v>201.27521899877968</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>165.655547547841</c:v>
+                  <c:v>208.83919002430173</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>172.1981122248836</c:v>
+                  <c:v>216.39674729388793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,82 +1216,82 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>24.420531148025606</c:v>
+                  <c:v>25.204921345096466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.320452582234918</c:v>
+                  <c:v>32.908081631077287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.46576661669242</c:v>
+                  <c:v>40.60557291096621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36.83205959405452</c:v>
+                  <c:v>48.297355262975323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41.466976330451928</c:v>
+                  <c:v>55.983389462984022</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.370921091109437</c:v>
+                  <c:v>63.663636976924202</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.496502614020699</c:v>
+                  <c:v>71.338059954657169</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.812295481031271</c:v>
+                  <c:v>79.006621225060798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62.274281621682562</c:v>
+                  <c:v>86.669284292100627</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>67.865917275304881</c:v>
+                  <c:v>94.326013331708168</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.568110853588522</c:v>
+                  <c:v>101.97677318932487</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>79.38270377483569</c:v>
+                  <c:v>109.62152937799415</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>85.388697441746729</c:v>
+                  <c:v>117.26024807691189</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.574810349592653</c:v>
+                  <c:v>124.89289613035484</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97.926636161469418</c:v>
+                  <c:v>132.51944104692765</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>104.44174860389445</c:v>
+                  <c:v>140.13985099907555</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>111.00897222982395</c:v>
+                  <c:v>147.75409482281836</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>117.57461702239802</c:v>
+                  <c:v>155.36214201767316</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>124.13822806293267</c:v>
+                  <c:v>162.96396274673103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130.6994192725343</c:v>
+                  <c:v>170.55952783686709</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>137.25786006333774</c:v>
+                  <c:v>178.14880877905898</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>143.81326507783373</c:v>
+                  <c:v>185.73177772879828</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>150.36538619778182</c:v>
+                  <c:v>193.30840750657711</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>156.91400624603881</c:v>
+                  <c:v>200.87867159843896</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>163.45893396911234</c:v>
+                  <c:v>208.44254415658119</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>170</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2368,7 +2372,7 @@
     </sheetNames>
     <definedNames>
       <definedName name="getUFVersion"/>
-      <definedName name="MF_calibr_pipe_m3day"/>
+      <definedName name="MF_calibr_pipe"/>
       <definedName name="MF_p_pipe_atma"/>
       <definedName name="PVT_encode_string"/>
     </definedNames>
@@ -2682,8 +2686,8 @@
   </sheetPr>
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2704,7 +2708,7 @@
     <col min="29" max="33" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2713,36 +2717,36 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7">
         <f>gamma_oil_*1000</f>
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2774,7 +2778,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
@@ -2786,13 +2790,13 @@
       </c>
       <c r="E10" s="8">
         <f>Rsb_/gamma_oil_</f>
-        <v>91.954022988505741</v>
+        <v>93.023255813953483</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
@@ -2804,13 +2808,13 @@
       </c>
       <c r="E11" s="8">
         <f>Rsb_/gamma_oil_</f>
-        <v>91.954022988505741</v>
+        <v>93.023255813953483</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
@@ -2828,7 +2832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
@@ -2857,7 +2861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
@@ -2867,24 +2871,37 @@
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="W15" s="21" t="str">
+        <f t="array" ref="W15:Z15">[1]!MF_calibr_pipe(Q_,fw_,C58,G58,E33,PVRstr1_,theta_,id_,Hydr_corr_,D58,D33)</f>
+        <v>no solution</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="str">
+        <v>solve_equation_bisection: values at segment's ends must have a different sign</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
@@ -2894,25 +2911,38 @@
       <c r="D18" s="9" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="W18">
+        <f t="array" ref="W18:Z18">[1]!MF_calibr_pipe(Q_,fw_,C58,E33,E58,PVRstr1_,theta_,id_,Hydr_corr_,F33,F58)</f>
+        <v>1.0001068115234375</v>
+      </c>
+      <c r="X18">
+        <v>-3.699467897604336E-4</v>
+      </c>
+      <c r="Y18">
+        <v>16</v>
+      </c>
+      <c r="Z18" t="str">
+        <v>solve_equation_bisection: done by  16 iterations, tolerance 0.001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
@@ -2929,7 +2959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>0</v>
       </c>
@@ -2940,18 +2970,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="2">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>34</v>
       </c>
@@ -2962,18 +2992,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="20">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
@@ -2984,7 +3014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>37</v>
       </c>
@@ -2995,13 +3025,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="16" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
-        <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,,,,0)</f>
+        <v>gamma_gas:0.800;gamma_oil:0.860;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
@@ -3021,13 +3051,13 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:23" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="V31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C32" s="14" t="s">
         <v>29</v>
       </c>
@@ -3075,17 +3105,13 @@
       </c>
       <c r="G33" s="5">
         <f t="array" ref="G33:H33">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C33,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D33,,,,Q_gas_free_)</f>
-        <v>24.420531148025606</v>
+        <v>25.204921345096466</v>
       </c>
       <c r="H33" s="5">
         <v>30</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="S33" t="str">
-        <f>[1]!MF_calibr_pipe_m3day(Q_,fw_,C58,E58,E33,PVRstr1_,,id_,Hydr_corr_,D58,D33)</f>
-        <v>no solution</v>
-      </c>
       <c r="V33">
         <v>0</v>
       </c>
@@ -3106,14 +3132,14 @@
       </c>
       <c r="E34" s="5">
         <f t="array" ref="E34:F34">[1]!MF_p_pipe_atma(Q_,fw_,C34-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D34,,,,Q_gas_free_)</f>
-        <v>29.583151083258013</v>
+        <v>33.303193141725899</v>
       </c>
       <c r="F34" s="5">
         <v>32</v>
       </c>
       <c r="G34" s="5">
         <f t="array" ref="G34:H34">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C34,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D34,,,,Q_gas_free_)</f>
-        <v>28.320452582234918</v>
+        <v>32.908081631077287</v>
       </c>
       <c r="H34" s="5">
         <v>32</v>
@@ -3140,14 +3166,14 @@
       </c>
       <c r="E35" s="5">
         <f t="array" ref="E35:F35">[1]!MF_p_pipe_atma(Q_,fw_,C35-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D35,,,,Q_gas_free_)</f>
-        <v>33.801765388082735</v>
+        <v>41.000720038105285</v>
       </c>
       <c r="F35" s="5">
         <v>34</v>
       </c>
       <c r="G35" s="5">
         <f t="array" ref="G35:H35">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C35,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D35,,,,Q_gas_free_)</f>
-        <v>32.46576661669242</v>
+        <v>40.60557291096621</v>
       </c>
       <c r="H35" s="5">
         <v>34</v>
@@ -3174,14 +3200,14 @@
       </c>
       <c r="E36" s="5">
         <f t="array" ref="E36:F36">[1]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D36,,,,Q_gas_free_)</f>
-        <v>38.255229000040401</v>
+        <v>48.692540775335956</v>
       </c>
       <c r="F36" s="5">
         <v>36</v>
       </c>
       <c r="G36" s="5">
         <f t="array" ref="G36:H36">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C36,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D36,,,,Q_gas_free_)</f>
-        <v>36.83205959405452</v>
+        <v>48.297355262975323</v>
       </c>
       <c r="H36" s="5">
         <v>36</v>
@@ -3208,14 +3234,14 @@
       </c>
       <c r="E37" s="5">
         <f t="array" ref="E37:F37">[1]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D37,,,,Q_gas_free_)</f>
-        <v>42.987304978782191</v>
+        <v>56.378616137328635</v>
       </c>
       <c r="F37" s="5">
         <v>38</v>
       </c>
       <c r="G37" s="5">
         <f t="array" ref="G37:H37">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C37,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D37,,,,Q_gas_free_)</f>
-        <v>41.466976330451928</v>
+        <v>55.983389462984022</v>
       </c>
       <c r="H37" s="5">
         <v>38</v>
@@ -3242,14 +3268,14 @@
       </c>
       <c r="E38" s="5">
         <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D38,,,,Q_gas_free_)</f>
-        <v>47.974945294964193</v>
+        <v>64.058907598092716</v>
       </c>
       <c r="F38" s="5">
         <v>40</v>
       </c>
       <c r="G38" s="5">
         <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C38,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D38,,,,Q_gas_free_)</f>
-        <v>46.370921091109437</v>
+        <v>63.663636976924202</v>
       </c>
       <c r="H38" s="5">
         <v>40</v>
@@ -3276,14 +3302,14 @@
       </c>
       <c r="E39" s="5">
         <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D39,,,,Q_gas_free_)</f>
-        <v>53.172257062530193</v>
+        <v>71.733377315615215</v>
       </c>
       <c r="F39" s="5">
         <v>42</v>
       </c>
       <c r="G39" s="5">
         <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C39,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D39,,,,Q_gas_free_)</f>
-        <v>51.496502614020699</v>
+        <v>71.338059954657169</v>
       </c>
       <c r="H39" s="5">
         <v>42</v>
@@ -3310,14 +3336,14 @@
       </c>
       <c r="E40" s="5">
         <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D40,,,,Q_gas_free_)</f>
-        <v>58.543503191890224</v>
+        <v>79.401988126948595</v>
       </c>
       <c r="F40" s="5">
         <v>44</v>
       </c>
       <c r="G40" s="5">
         <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C40,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D40,,,,Q_gas_free_)</f>
-        <v>56.812295481031271</v>
+        <v>79.006621225060798</v>
       </c>
       <c r="H40" s="5">
         <v>44</v>
@@ -3344,14 +3370,14 @@
       </c>
       <c r="E41" s="5">
         <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D41,,,,Q_gas_free_)</f>
-        <v>64.059857245484253</v>
+        <v>87.064703544283944</v>
       </c>
       <c r="F41" s="5">
         <v>46</v>
       </c>
       <c r="G41" s="5">
         <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C41,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D41,,,,Q_gas_free_)</f>
-        <v>62.274281621682562</v>
+        <v>86.669284292100627</v>
       </c>
       <c r="H41" s="5">
         <v>46</v>
@@ -3378,14 +3404,14 @@
       </c>
       <c r="E42" s="5">
         <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D42,,,,Q_gas_free_)</f>
-        <v>69.697069630984544</v>
+        <v>94.721487751831091</v>
       </c>
       <c r="F42" s="5">
         <v>48</v>
       </c>
       <c r="G42" s="5">
         <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C42,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D42,,,,Q_gas_free_)</f>
-        <v>67.865917275304881</v>
+        <v>94.326013331708168</v>
       </c>
       <c r="H42" s="5">
         <v>48</v>
@@ -3412,14 +3438,14 @@
       </c>
       <c r="E43" s="5">
         <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D43,,,,Q_gas_free_)</f>
-        <v>75.434830852226483</v>
+        <v>102.37230560336373</v>
       </c>
       <c r="F43" s="5">
         <v>50</v>
       </c>
       <c r="G43" s="5">
         <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C43,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D43,,,,Q_gas_free_)</f>
-        <v>73.568110853588522</v>
+        <v>101.97677318932487</v>
       </c>
       <c r="H43" s="5">
         <v>50</v>
@@ -3446,14 +3472,14 @@
       </c>
       <c r="E44" s="5">
         <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D44,,,,Q_gas_free_)</f>
-        <v>81.318514138118758</v>
+        <v>110.01712262031398</v>
       </c>
       <c r="F44" s="5">
         <v>52</v>
       </c>
       <c r="G44" s="5">
         <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C44,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D44,,,,Q_gas_free_)</f>
-        <v>79.38270377483569</v>
+        <v>109.62152937799415</v>
       </c>
       <c r="H44" s="5">
         <v>52</v>
@@ -3480,14 +3506,14 @@
       </c>
       <c r="E45" s="5">
         <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D45,,,,Q_gas_free_)</f>
-        <v>87.394050508029594</v>
+        <v>117.65590499032363</v>
       </c>
       <c r="F45" s="5">
         <v>54</v>
       </c>
       <c r="G45" s="5">
         <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C45,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D45,,,,Q_gas_free_)</f>
-        <v>85.388697441746729</v>
+        <v>117.26024807691189</v>
       </c>
       <c r="H45" s="5">
         <v>54</v>
@@ -3514,14 +3540,14 @@
       </c>
       <c r="E46" s="5">
         <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D46,,,,Q_gas_free_)</f>
-        <v>93.647650767532141</v>
+        <v>125.2886195661755</v>
       </c>
       <c r="F46" s="5">
         <v>56</v>
       </c>
       <c r="G46" s="5">
         <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C46,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D46,,,,Q_gas_free_)</f>
-        <v>91.574810349592653</v>
+        <v>124.89289613035484</v>
       </c>
       <c r="H46" s="5">
         <v>56</v>
@@ -3548,14 +3574,14 @@
       </c>
       <c r="E47" s="5">
         <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D47,,,,Q_gas_free_)</f>
-        <v>100.06683777740484</v>
+        <v>132.91523386504187</v>
       </c>
       <c r="F47" s="5">
         <v>58</v>
       </c>
       <c r="G47" s="5">
         <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C47,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D47,,,,Q_gas_free_)</f>
-        <v>97.926636161469418</v>
+        <v>132.51944104692765</v>
       </c>
       <c r="H47" s="5">
         <v>58</v>
@@ -3582,14 +3608,14 @@
       </c>
       <c r="E48" s="5">
         <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D48,,,,Q_gas_free_)</f>
-        <v>106.62019163752962</v>
+        <v>140.53571606799906</v>
       </c>
       <c r="F48" s="5">
         <v>60</v>
       </c>
       <c r="G48" s="5">
         <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C48,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D48,,,,Q_gas_free_)</f>
-        <v>104.44174860389445</v>
+        <v>140.13985099907555</v>
       </c>
       <c r="H48" s="5">
         <v>60</v>
@@ -3616,14 +3642,14 @@
       </c>
       <c r="E49" s="5">
         <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D49,,,,Q_gas_free_)</f>
-        <v>113.19004748399115</v>
+        <v>148.15003501976409</v>
       </c>
       <c r="F49" s="5">
         <v>62</v>
       </c>
       <c r="G49" s="5">
         <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C49,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D49,,,,Q_gas_free_)</f>
-        <v>111.00897222982395</v>
+        <v>147.75409482281836</v>
       </c>
       <c r="H49" s="5">
         <v>62</v>
@@ -3650,14 +3676,14 @@
       </c>
       <c r="E50" s="5">
         <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D50,,,,Q_gas_free_)</f>
-        <v>119.75811716090159</v>
+        <v>155.75816022861827</v>
       </c>
       <c r="F50" s="5">
         <v>64</v>
       </c>
       <c r="G50" s="5">
         <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C50,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D50,,,,Q_gas_free_)</f>
-        <v>117.57461702239802</v>
+        <v>155.36214201767316</v>
       </c>
       <c r="H50" s="5">
         <v>64</v>
@@ -3684,14 +3710,14 @@
       </c>
       <c r="E51" s="5">
         <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D51,,,,Q_gas_free_)</f>
-        <v>126.32397571043576</v>
+        <v>163.3600618664872</v>
       </c>
       <c r="F51" s="5">
         <v>66</v>
       </c>
       <c r="G51" s="5">
         <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C51,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D51,,,,Q_gas_free_)</f>
-        <v>124.13822806293267</v>
+        <v>162.96396274673103</v>
       </c>
       <c r="H51" s="5">
         <v>66</v>
@@ -3718,14 +3744,14 @@
       </c>
       <c r="E52" s="5">
         <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D52,,,,Q_gas_free_)</f>
-        <v>132.88726139443145</v>
+        <v>170.95571076915209</v>
       </c>
       <c r="F52" s="5">
         <v>68</v>
       </c>
       <c r="G52" s="5">
         <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C52,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D52,,,,Q_gas_free_)</f>
-        <v>130.6994192725343</v>
+        <v>170.55952783686709</v>
       </c>
       <c r="H52" s="5">
         <v>68</v>
@@ -3752,14 +3778,14 @@
       </c>
       <c r="E53" s="5">
         <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D53,,,,Q_gas_free_)</f>
-        <v>139.44766362358564</v>
+        <v>178.54507843657098</v>
       </c>
       <c r="F53" s="5">
         <v>70</v>
       </c>
       <c r="G53" s="5">
         <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C53,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D53,,,,Q_gas_free_)</f>
-        <v>137.25786006333774</v>
+        <v>178.14880877905898</v>
       </c>
       <c r="H53" s="5">
         <v>70</v>
@@ -3786,14 +3812,14 @@
       </c>
       <c r="E54" s="5">
         <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D54,,,,Q_gas_free_)</f>
-        <v>146.00491363875426</v>
+        <v>186.12813703329178</v>
       </c>
       <c r="F54" s="5">
         <v>72</v>
       </c>
       <c r="G54" s="5">
         <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C54,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D54,,,,Q_gas_free_)</f>
-        <v>143.81326507783373</v>
+        <v>185.73177772879828</v>
       </c>
       <c r="H54" s="5">
         <v>72</v>
@@ -3820,14 +3846,14 @@
       </c>
       <c r="E55" s="5">
         <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D55,,,,Q_gas_free_)</f>
-        <v>152.55877722469904</v>
+        <v>193.70485938894166</v>
       </c>
       <c r="F55" s="5">
         <v>74</v>
       </c>
       <c r="G55" s="5">
         <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C55,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D55,,,,Q_gas_free_)</f>
-        <v>150.36538619778182</v>
+        <v>193.30840750657711</v>
       </c>
       <c r="H55" s="5">
         <v>74</v>
@@ -3854,14 +3880,14 @@
       </c>
       <c r="E56" s="5">
         <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D56,,,,Q_gas_free_)</f>
-        <v>159.10904894740781</v>
+        <v>201.27521899877968</v>
       </c>
       <c r="F56" s="5">
         <v>76</v>
       </c>
       <c r="G56" s="5">
         <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C56,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D56,,,,Q_gas_free_)</f>
-        <v>156.91400624603881</v>
+        <v>200.87867159843896</v>
       </c>
       <c r="H56" s="5">
         <v>76</v>
@@ -3888,14 +3914,14 @@
       </c>
       <c r="E57" s="5">
         <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D57,,,,Q_gas_free_)</f>
-        <v>165.655547547841</v>
+        <v>208.83919002430173</v>
       </c>
       <c r="F57" s="5">
         <v>78</v>
       </c>
       <c r="G57" s="5">
         <f t="array" ref="G57:H57">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C57,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D57,,,,Q_gas_free_)</f>
-        <v>163.45893396911234</v>
+        <v>208.44254415658119</v>
       </c>
       <c r="H57" s="5">
         <v>78</v>
@@ -3922,14 +3948,14 @@
       </c>
       <c r="E58" s="5">
         <f t="array" ref="E58:F58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D58,,,,Q_gas_free_)</f>
-        <v>172.1981122248836</v>
+        <v>216.39674729388793</v>
       </c>
       <c r="F58" s="5">
         <v>80</v>
       </c>
       <c r="G58" s="19">
         <f>p1_</f>
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="H58" s="19">
         <f>D58</f>

--- a/exercises/ex050.MF_pipe.xlsx
+++ b/exercises/ex050.MF_pipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8074C085-76A7-47C6-8510-8AAA0B2FD30A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA1965-9F66-405D-A33C-E55D9D81FA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,6 +49,7 @@
     <definedName name="Tres_" localSheetId="0">'MF 1 '!$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -60,6 +61,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -477,7 +500,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -757,7 +780,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Iau?iue_AA_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1000,79 +1023,79 @@
                   <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.303193141725899</c:v>
+                  <c:v>33.305974942894721</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.000720038105285</c:v>
+                  <c:v>41.006258969478829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.692540775335956</c:v>
+                  <c:v>48.700813876216692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56.378616137328635</c:v>
+                  <c:v>56.389602001269829</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64.058907598092716</c:v>
+                  <c:v>64.072586236529133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.733377315615215</c:v>
+                  <c:v>71.749730038066104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.401988126948595</c:v>
+                  <c:v>79.420997435288086</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.064703544283944</c:v>
+                  <c:v>87.086353039021716</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.721487751831091</c:v>
+                  <c:v>94.745762048702815</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>102.37230560336373</c:v>
+                  <c:v>102.39919025881672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110.01712262031398</c:v>
+                  <c:v>110.04660406470354</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117.65590499032363</c:v>
+                  <c:v>117.68797046782333</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>125.2886195661755</c:v>
+                  <c:v>125.32325708055757</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132.91523386504187</c:v>
+                  <c:v>132.95243213061082</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>140.53571606799906</c:v>
+                  <c:v>140.5754644650651</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>148.15003501976409</c:v>
+                  <c:v>148.19232355413098</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>155.75816022861827</c:v>
+                  <c:v>155.80297949463173</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>163.3600618664872</c:v>
+                  <c:v>163.40740301325221</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>170.95571076915209</c:v>
+                  <c:v>171.00556546957841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>178.54507843657098</c:v>
+                  <c:v>178.59743885895034</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>186.12813703329178</c:v>
+                  <c:v>186.18299581514665</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>193.70485938894166</c:v>
+                  <c:v>193.76220961291872</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>201.27521899877968</c:v>
+                  <c:v>201.3350541703872</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>208.83919002430173</c:v>
+                  <c:v>208.90150405131422</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>216.39674729388793</c:v>
+                  <c:v>216.46153446726163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,79 +1239,79 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>25.204921345096466</c:v>
+                  <c:v>25.140410546943794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.908081631077287</c:v>
+                  <c:v>32.846347102325254</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40.60557291096621</c:v>
+                  <c:v>40.546589531270754</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48.297355262975323</c:v>
+                  <c:v>48.241099620842</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.983389462984022</c:v>
+                  <c:v>55.929839699758077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.663636976924202</c:v>
+                  <c:v>63.612772650423793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>71.338059954657169</c:v>
+                  <c:v>71.289861919377827</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79.006621225060798</c:v>
+                  <c:v>78.96107152644592</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86.669284292100627</c:v>
+                  <c:v>86.626366072820062</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.326013331708168</c:v>
+                  <c:v>94.285710748247183</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101.97677318932487</c:v>
+                  <c:v>101.93907133746575</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>109.62152937799415</c:v>
+                  <c:v>109.58641422600849</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117.26024807691189</c:v>
+                  <c:v>117.22770640546543</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>124.89289613035484</c:v>
+                  <c:v>124.86291547828164</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>132.51944104692765</c:v>
+                  <c:v>132.49200966215744</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>140.13985099907555</c:v>
+                  <c:v>140.1149577940995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>147.75409482281836</c:v>
+                  <c:v>147.73172933416879</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>155.36214201767316</c:v>
+                  <c:v>155.34229436896345</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>162.96396274673103</c:v>
+                  <c:v>162.9466236148634</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>170.55952783686709</c:v>
+                  <c:v>170.54468842106854</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>178.14880877905898</c:v>
+                  <c:v>178.13646077244812</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>185.73177772879828</c:v>
+                  <c:v>185.72191329222275</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>193.30840750657711</c:v>
+                  <c:v>193.30101924449647</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>200.87867159843896</c:v>
+                  <c:v>200.87375253664919</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>208.44254415658119</c:v>
+                  <c:v>208.44008772160774</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>216</c:v>
@@ -2684,10 +2707,10 @@
   <sheetPr codeName="Worksheet_MF1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AB59"/>
+  <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2704,7 +2727,7 @@
     <col min="12" max="13" width="10.140625" customWidth="1"/>
     <col min="23" max="26" width="9.140625" customWidth="1"/>
     <col min="27" max="27" width="5.85546875" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="6.5703125" customWidth="1"/>
     <col min="29" max="33" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2871,18 +2894,18 @@
       <c r="D15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="21" t="str">
+      <c r="W15" s="21">
         <f t="array" ref="W15:Z15">[1]!MF_calibr_pipe(Q_,fw_,C58,G58,E33,PVRstr1_,theta_,id_,Hydr_corr_,D58,D33)</f>
-        <v>no solution</v>
+        <v>0.997589111328125</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>-3.1883701333512704E-4</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="str">
-        <v>solve_equation_bisection: values at segment's ends must have a different sign</v>
+        <v>solve_equation_bisection: done by  15 iterations, tolerance 0.001</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -2890,7 +2913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
@@ -2901,7 +2924,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:34" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>45</v>
       </c>
@@ -2911,21 +2934,45 @@
       <c r="D18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="W18">
-        <f t="array" ref="W18:Z18">[1]!MF_calibr_pipe(Q_,fw_,C58,E33,E58,PVRstr1_,theta_,id_,Hydr_corr_,F33,F58)</f>
-        <v>1.0001068115234375</v>
+      <c r="W18" t="str">
+        <f t="array" ref="W18:AH19">[1]!MF_calibr_pipe(Q_,fw_,C58,E33,E58,PVRstr1_,theta_,id_,Hydr_corr_,F33,F58)</f>
+        <v>no solution</v>
       </c>
       <c r="X18">
-        <v>-3.699467897604336E-4</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="str">
-        <v>solve_equation_bisection: done by  16 iterations, tolerance 0.001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" x14ac:dyDescent="0.3">
+        <v>solve_equation_bisection: values at segment's ends must have a different sign</v>
+      </c>
+      <c r="AA18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH18" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>26</v>
       </c>
@@ -2935,14 +2982,50 @@
       <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="W19" t="str">
+        <v>no solution</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="str">
+        <v>solve_equation_bisection: values at segment's ends must have a different sign</v>
+      </c>
+      <c r="AA19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AB19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AC19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AD19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AE19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AF19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AG19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="AH19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
         <v>29</v>
       </c>
@@ -2959,7 +3042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
         <v>0</v>
       </c>
@@ -2969,19 +3052,68 @@
       <c r="D22" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="W22" cm="1">
+        <f t="array" ref="W22:AD23">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,88,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D38,,,,Q_gas_free_)</f>
+        <v>49.514724635313293</v>
+      </c>
+      <c r="X22">
+        <v>40</v>
+      </c>
+      <c r="Y22">
+        <v>88</v>
+      </c>
+      <c r="Z22">
+        <v>30</v>
+      </c>
+      <c r="AA22">
+        <v>49.514724635313293</v>
+      </c>
+      <c r="AB22">
+        <v>40</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="2">
-        <v>-90</v>
+        <v>90</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+      <c r="W23" t="str">
+        <v>p_calc_atma</v>
+      </c>
+      <c r="X23" t="str">
+        <v>t_calc_C</v>
+      </c>
+      <c r="Y23" t="str">
+        <v>p_in_atma</v>
+      </c>
+      <c r="Z23" t="str">
+        <v>t_in_C</v>
+      </c>
+      <c r="AA23" t="str">
+        <v>p_out_atma</v>
+      </c>
+      <c r="AB23" t="str">
+        <v>t_out_C</v>
+      </c>
+      <c r="AC23" t="str">
+        <v>c_calibr_grav</v>
+      </c>
+      <c r="AD23" t="str">
+        <v>c_calibr_fric</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="13" t="s">
         <v>34</v>
       </c>
@@ -2992,7 +3124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="13" t="s">
         <v>35</v>
       </c>
@@ -3003,7 +3135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="13" t="s">
         <v>36</v>
       </c>
@@ -3014,7 +3146,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
         <v>37</v>
       </c>
@@ -3025,7 +3157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B29" s="15" t="s">
         <v>9</v>
       </c>
@@ -3051,13 +3183,13 @@
       <c r="S29" s="16"/>
       <c r="T29" s="16"/>
     </row>
-    <row r="30" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:26" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="V31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" ht="32.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C32" s="14" t="s">
         <v>29</v>
       </c>
@@ -3105,7 +3237,7 @@
       </c>
       <c r="G33" s="5">
         <f t="array" ref="G33:H33">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C33,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D33,,,,Q_gas_free_)</f>
-        <v>25.204921345096466</v>
+        <v>25.140410546943794</v>
       </c>
       <c r="H33" s="5">
         <v>30</v>
@@ -3132,14 +3264,14 @@
       </c>
       <c r="E34" s="5">
         <f t="array" ref="E34:F34">[1]!MF_p_pipe_atma(Q_,fw_,C34-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D34,,,,Q_gas_free_)</f>
-        <v>33.303193141725899</v>
+        <v>33.305974942894721</v>
       </c>
       <c r="F34" s="5">
         <v>32</v>
       </c>
       <c r="G34" s="5">
         <f t="array" ref="G34:H34">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C34,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D34,,,,Q_gas_free_)</f>
-        <v>32.908081631077287</v>
+        <v>32.846347102325254</v>
       </c>
       <c r="H34" s="5">
         <v>32</v>
@@ -3166,14 +3298,14 @@
       </c>
       <c r="E35" s="5">
         <f t="array" ref="E35:F35">[1]!MF_p_pipe_atma(Q_,fw_,C35-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D35,,,,Q_gas_free_)</f>
-        <v>41.000720038105285</v>
+        <v>41.006258969478829</v>
       </c>
       <c r="F35" s="5">
         <v>34</v>
       </c>
       <c r="G35" s="5">
         <f t="array" ref="G35:H35">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C35,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D35,,,,Q_gas_free_)</f>
-        <v>40.60557291096621</v>
+        <v>40.546589531270754</v>
       </c>
       <c r="H35" s="5">
         <v>34</v>
@@ -3200,14 +3332,14 @@
       </c>
       <c r="E36" s="5">
         <f t="array" ref="E36:F36">[1]!MF_p_pipe_atma(Q_,fw_,C36-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D36,,,,Q_gas_free_)</f>
-        <v>48.692540775335956</v>
+        <v>48.700813876216692</v>
       </c>
       <c r="F36" s="5">
         <v>36</v>
       </c>
       <c r="G36" s="5">
         <f t="array" ref="G36:H36">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C36,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D36,,,,Q_gas_free_)</f>
-        <v>48.297355262975323</v>
+        <v>48.241099620842</v>
       </c>
       <c r="H36" s="5">
         <v>36</v>
@@ -3234,14 +3366,14 @@
       </c>
       <c r="E37" s="5">
         <f t="array" ref="E37:F37">[1]!MF_p_pipe_atma(Q_,fw_,C37-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D37,,,,Q_gas_free_)</f>
-        <v>56.378616137328635</v>
+        <v>56.389602001269829</v>
       </c>
       <c r="F37" s="5">
         <v>38</v>
       </c>
       <c r="G37" s="5">
         <f t="array" ref="G37:H37">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C37,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D37,,,,Q_gas_free_)</f>
-        <v>55.983389462984022</v>
+        <v>55.929839699758077</v>
       </c>
       <c r="H37" s="5">
         <v>38</v>
@@ -3268,14 +3400,14 @@
       </c>
       <c r="E38" s="5">
         <f t="array" ref="E38:F38">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D38,,,,Q_gas_free_)</f>
-        <v>64.058907598092716</v>
+        <v>64.072586236529133</v>
       </c>
       <c r="F38" s="5">
         <v>40</v>
       </c>
       <c r="G38" s="5">
         <f t="array" ref="G38:H38">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C38,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D38,,,,Q_gas_free_)</f>
-        <v>63.663636976924202</v>
+        <v>63.612772650423793</v>
       </c>
       <c r="H38" s="5">
         <v>40</v>
@@ -3302,14 +3434,14 @@
       </c>
       <c r="E39" s="5">
         <f t="array" ref="E39:F39">[1]!MF_p_pipe_atma(Q_,fw_,C39-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D39,,,,Q_gas_free_)</f>
-        <v>71.733377315615215</v>
+        <v>71.749730038066104</v>
       </c>
       <c r="F39" s="5">
         <v>42</v>
       </c>
       <c r="G39" s="5">
         <f t="array" ref="G39:H39">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C39,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D39,,,,Q_gas_free_)</f>
-        <v>71.338059954657169</v>
+        <v>71.289861919377827</v>
       </c>
       <c r="H39" s="5">
         <v>42</v>
@@ -3336,14 +3468,14 @@
       </c>
       <c r="E40" s="5">
         <f t="array" ref="E40:F40">[1]!MF_p_pipe_atma(Q_,fw_,C40-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D40,,,,Q_gas_free_)</f>
-        <v>79.401988126948595</v>
+        <v>79.420997435288086</v>
       </c>
       <c r="F40" s="5">
         <v>44</v>
       </c>
       <c r="G40" s="5">
         <f t="array" ref="G40:H40">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C40,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D40,,,,Q_gas_free_)</f>
-        <v>79.006621225060798</v>
+        <v>78.96107152644592</v>
       </c>
       <c r="H40" s="5">
         <v>44</v>
@@ -3370,14 +3502,14 @@
       </c>
       <c r="E41" s="5">
         <f t="array" ref="E41:F41">[1]!MF_p_pipe_atma(Q_,fw_,C41-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D41,,,,Q_gas_free_)</f>
-        <v>87.064703544283944</v>
+        <v>87.086353039021716</v>
       </c>
       <c r="F41" s="5">
         <v>46</v>
       </c>
       <c r="G41" s="5">
         <f t="array" ref="G41:H41">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C41,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D41,,,,Q_gas_free_)</f>
-        <v>86.669284292100627</v>
+        <v>86.626366072820062</v>
       </c>
       <c r="H41" s="5">
         <v>46</v>
@@ -3404,14 +3536,14 @@
       </c>
       <c r="E42" s="5">
         <f t="array" ref="E42:F42">[1]!MF_p_pipe_atma(Q_,fw_,C42-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D42,,,,Q_gas_free_)</f>
-        <v>94.721487751831091</v>
+        <v>94.745762048702815</v>
       </c>
       <c r="F42" s="5">
         <v>48</v>
       </c>
       <c r="G42" s="5">
         <f t="array" ref="G42:H42">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C42,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D42,,,,Q_gas_free_)</f>
-        <v>94.326013331708168</v>
+        <v>94.285710748247183</v>
       </c>
       <c r="H42" s="5">
         <v>48</v>
@@ -3438,14 +3570,14 @@
       </c>
       <c r="E43" s="5">
         <f t="array" ref="E43:F43">[1]!MF_p_pipe_atma(Q_,fw_,C43-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D43,,,,Q_gas_free_)</f>
-        <v>102.37230560336373</v>
+        <v>102.39919025881672</v>
       </c>
       <c r="F43" s="5">
         <v>50</v>
       </c>
       <c r="G43" s="5">
         <f t="array" ref="G43:H43">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C43,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D43,,,,Q_gas_free_)</f>
-        <v>101.97677318932487</v>
+        <v>101.93907133746575</v>
       </c>
       <c r="H43" s="5">
         <v>50</v>
@@ -3472,14 +3604,14 @@
       </c>
       <c r="E44" s="5">
         <f t="array" ref="E44:F44">[1]!MF_p_pipe_atma(Q_,fw_,C44-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D44,,,,Q_gas_free_)</f>
-        <v>110.01712262031398</v>
+        <v>110.04660406470354</v>
       </c>
       <c r="F44" s="5">
         <v>52</v>
       </c>
       <c r="G44" s="5">
         <f t="array" ref="G44:H44">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C44,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D44,,,,Q_gas_free_)</f>
-        <v>109.62152937799415</v>
+        <v>109.58641422600849</v>
       </c>
       <c r="H44" s="5">
         <v>52</v>
@@ -3506,14 +3638,14 @@
       </c>
       <c r="E45" s="5">
         <f t="array" ref="E45:F45">[1]!MF_p_pipe_atma(Q_,fw_,C45-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D45,,,,Q_gas_free_)</f>
-        <v>117.65590499032363</v>
+        <v>117.68797046782333</v>
       </c>
       <c r="F45" s="5">
         <v>54</v>
       </c>
       <c r="G45" s="5">
         <f t="array" ref="G45:H45">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C45,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D45,,,,Q_gas_free_)</f>
-        <v>117.26024807691189</v>
+        <v>117.22770640546543</v>
       </c>
       <c r="H45" s="5">
         <v>54</v>
@@ -3540,14 +3672,14 @@
       </c>
       <c r="E46" s="5">
         <f t="array" ref="E46:F46">[1]!MF_p_pipe_atma(Q_,fw_,C46-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D46,,,,Q_gas_free_)</f>
-        <v>125.2886195661755</v>
+        <v>125.32325708055757</v>
       </c>
       <c r="F46" s="5">
         <v>56</v>
       </c>
       <c r="G46" s="5">
         <f t="array" ref="G46:H46">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C46,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D46,,,,Q_gas_free_)</f>
-        <v>124.89289613035484</v>
+        <v>124.86291547828164</v>
       </c>
       <c r="H46" s="5">
         <v>56</v>
@@ -3574,14 +3706,14 @@
       </c>
       <c r="E47" s="5">
         <f t="array" ref="E47:F47">[1]!MF_p_pipe_atma(Q_,fw_,C47-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D47,,,,Q_gas_free_)</f>
-        <v>132.91523386504187</v>
+        <v>132.95243213061082</v>
       </c>
       <c r="F47" s="5">
         <v>58</v>
       </c>
       <c r="G47" s="5">
         <f t="array" ref="G47:H47">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C47,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D47,,,,Q_gas_free_)</f>
-        <v>132.51944104692765</v>
+        <v>132.49200966215744</v>
       </c>
       <c r="H47" s="5">
         <v>58</v>
@@ -3608,14 +3740,14 @@
       </c>
       <c r="E48" s="5">
         <f t="array" ref="E48:F48">[1]!MF_p_pipe_atma(Q_,fw_,C48-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D48,,,,Q_gas_free_)</f>
-        <v>140.53571606799906</v>
+        <v>140.5754644650651</v>
       </c>
       <c r="F48" s="5">
         <v>60</v>
       </c>
       <c r="G48" s="5">
         <f t="array" ref="G48:H48">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C48,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D48,,,,Q_gas_free_)</f>
-        <v>140.13985099907555</v>
+        <v>140.1149577940995</v>
       </c>
       <c r="H48" s="5">
         <v>60</v>
@@ -3642,14 +3774,14 @@
       </c>
       <c r="E49" s="5">
         <f t="array" ref="E49:F49">[1]!MF_p_pipe_atma(Q_,fw_,C49-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D49,,,,Q_gas_free_)</f>
-        <v>148.15003501976409</v>
+        <v>148.19232355413098</v>
       </c>
       <c r="F49" s="5">
         <v>62</v>
       </c>
       <c r="G49" s="5">
         <f t="array" ref="G49:H49">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C49,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D49,,,,Q_gas_free_)</f>
-        <v>147.75409482281836</v>
+        <v>147.73172933416879</v>
       </c>
       <c r="H49" s="5">
         <v>62</v>
@@ -3676,14 +3808,14 @@
       </c>
       <c r="E50" s="5">
         <f t="array" ref="E50:F50">[1]!MF_p_pipe_atma(Q_,fw_,C50-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D50,,,,Q_gas_free_)</f>
-        <v>155.75816022861827</v>
+        <v>155.80297949463173</v>
       </c>
       <c r="F50" s="5">
         <v>64</v>
       </c>
       <c r="G50" s="5">
         <f t="array" ref="G50:H50">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C50,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D50,,,,Q_gas_free_)</f>
-        <v>155.36214201767316</v>
+        <v>155.34229436896345</v>
       </c>
       <c r="H50" s="5">
         <v>64</v>
@@ -3710,14 +3842,14 @@
       </c>
       <c r="E51" s="5">
         <f t="array" ref="E51:F51">[1]!MF_p_pipe_atma(Q_,fw_,C51-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D51,,,,Q_gas_free_)</f>
-        <v>163.3600618664872</v>
+        <v>163.40740301325221</v>
       </c>
       <c r="F51" s="5">
         <v>66</v>
       </c>
       <c r="G51" s="5">
         <f t="array" ref="G51:H51">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C51,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D51,,,,Q_gas_free_)</f>
-        <v>162.96396274673103</v>
+        <v>162.9466236148634</v>
       </c>
       <c r="H51" s="5">
         <v>66</v>
@@ -3744,14 +3876,14 @@
       </c>
       <c r="E52" s="5">
         <f t="array" ref="E52:F52">[1]!MF_p_pipe_atma(Q_,fw_,C52-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D52,,,,Q_gas_free_)</f>
-        <v>170.95571076915209</v>
+        <v>171.00556546957841</v>
       </c>
       <c r="F52" s="5">
         <v>68</v>
       </c>
       <c r="G52" s="5">
         <f t="array" ref="G52:H52">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C52,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D52,,,,Q_gas_free_)</f>
-        <v>170.55952783686709</v>
+        <v>170.54468842106854</v>
       </c>
       <c r="H52" s="5">
         <v>68</v>
@@ -3778,14 +3910,14 @@
       </c>
       <c r="E53" s="5">
         <f t="array" ref="E53:F53">[1]!MF_p_pipe_atma(Q_,fw_,C53-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D53,,,,Q_gas_free_)</f>
-        <v>178.54507843657098</v>
+        <v>178.59743885895034</v>
       </c>
       <c r="F53" s="5">
         <v>70</v>
       </c>
       <c r="G53" s="5">
         <f t="array" ref="G53:H53">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C53,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D53,,,,Q_gas_free_)</f>
-        <v>178.14880877905898</v>
+        <v>178.13646077244812</v>
       </c>
       <c r="H53" s="5">
         <v>70</v>
@@ -3812,14 +3944,14 @@
       </c>
       <c r="E54" s="5">
         <f t="array" ref="E54:F54">[1]!MF_p_pipe_atma(Q_,fw_,C54-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D54,,,,Q_gas_free_)</f>
-        <v>186.12813703329178</v>
+        <v>186.18299581514665</v>
       </c>
       <c r="F54" s="5">
         <v>72</v>
       </c>
       <c r="G54" s="5">
         <f t="array" ref="G54:H54">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C54,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D54,,,,Q_gas_free_)</f>
-        <v>185.73177772879828</v>
+        <v>185.72191329222275</v>
       </c>
       <c r="H54" s="5">
         <v>72</v>
@@ -3846,14 +3978,14 @@
       </c>
       <c r="E55" s="5">
         <f t="array" ref="E55:F55">[1]!MF_p_pipe_atma(Q_,fw_,C55-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D55,,,,Q_gas_free_)</f>
-        <v>193.70485938894166</v>
+        <v>193.76220961291872</v>
       </c>
       <c r="F55" s="5">
         <v>74</v>
       </c>
       <c r="G55" s="5">
         <f t="array" ref="G55:H55">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C55,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D55,,,,Q_gas_free_)</f>
-        <v>193.30840750657711</v>
+        <v>193.30101924449647</v>
       </c>
       <c r="H55" s="5">
         <v>74</v>
@@ -3880,14 +4012,14 @@
       </c>
       <c r="E56" s="5">
         <f t="array" ref="E56:F56">[1]!MF_p_pipe_atma(Q_,fw_,C56-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D56,,,,Q_gas_free_)</f>
-        <v>201.27521899877968</v>
+        <v>201.3350541703872</v>
       </c>
       <c r="F56" s="5">
         <v>76</v>
       </c>
       <c r="G56" s="5">
         <f t="array" ref="G56:H56">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C56,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D56,,,,Q_gas_free_)</f>
-        <v>200.87867159843896</v>
+        <v>200.87375253664919</v>
       </c>
       <c r="H56" s="5">
         <v>76</v>
@@ -3914,14 +4046,14 @@
       </c>
       <c r="E57" s="5">
         <f t="array" ref="E57:F57">[1]!MF_p_pipe_atma(Q_,fw_,C57-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D57,,,,Q_gas_free_)</f>
-        <v>208.83919002430173</v>
+        <v>208.90150405131422</v>
       </c>
       <c r="F57" s="5">
         <v>78</v>
       </c>
       <c r="G57" s="5">
         <f t="array" ref="G57:H57">[1]!MF_p_pipe_atma(Q_,fw_,$C$58-C57,$G$58,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$58,D57,,,,Q_gas_free_)</f>
-        <v>208.44254415658119</v>
+        <v>208.44008772160774</v>
       </c>
       <c r="H57" s="5">
         <v>78</v>
@@ -3948,7 +4080,7 @@
       </c>
       <c r="E58" s="5">
         <f t="array" ref="E58:F58">[1]!MF_p_pipe_atma(Q_,fw_,C58-l0_,$E$33,0,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D58,,,,Q_gas_free_)</f>
-        <v>216.39674729388793</v>
+        <v>216.46153446726163</v>
       </c>
       <c r="F58" s="5">
         <v>80</v>

--- a/exercises/ex050.MF_pipe.xlsx
+++ b/exercises/ex050.MF_pipe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBA1965-9F66-405D-A33C-E55D9D81FA4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5C88FF-B0BA-4EC3-B140-D130AAA92BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,6 @@
     <definedName name="Tres_" localSheetId="0">'MF 1 '!$C$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2390,7 +2389,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="ESPbase"/>
       <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
@@ -2401,7 +2399,6 @@
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2710,7 +2707,7 @@
   <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+      <selection activeCell="X22" sqref="X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -2731,7 +2728,7 @@
     <col min="29" max="33" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2740,20 +2737,20 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
@@ -2769,7 +2766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
@@ -2785,7 +2782,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
@@ -2801,7 +2798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
@@ -2819,7 +2816,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
@@ -2836,8 +2833,24 @@
       <c r="F11" s="9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="W11" cm="1">
+        <f t="array" ref="W11:AA12">[1]!MF_calibr_pipe(Q_,fw_,C58,G58,E33,1,PVRstr1_,theta_,id_,Hydr_corr_,D58,D33)</f>
+        <v>0.997589111328125</v>
+      </c>
+      <c r="X11" t="str">
+        <v>calibr_grav</v>
+      </c>
+      <c r="Y11">
+        <v>-3.1883701333512704E-4</v>
+      </c>
+      <c r="Z11">
+        <v>15</v>
+      </c>
+      <c r="AA11" t="str">
+        <v>solve_equation_bisection: done by  15 iterations, tolerance 0.001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
@@ -2854,8 +2867,23 @@
       <c r="F12" s="10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="W12" t="str">
+        <v>solution</v>
+      </c>
+      <c r="X12" t="str">
+        <v>cal_type</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>y_solution</v>
+      </c>
+      <c r="Z12" t="str">
+        <v>iterations</v>
+      </c>
+      <c r="AA12" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
@@ -2873,7 +2901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
@@ -2884,7 +2912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>21</v>
       </c>
@@ -2895,20 +2923,20 @@
         <v>4</v>
       </c>
       <c r="W15" s="21">
-        <f t="array" ref="W15:Z15">[1]!MF_calibr_pipe(Q_,fw_,C58,G58,E33,PVRstr1_,theta_,id_,Hydr_corr_,D58,D33)</f>
+        <f t="array" ref="W15:Z15">[1]!MF_calibr_pipe(Q_,fw_,C58,G58,E33,1,PVRstr1_,theta_,id_,Hydr_corr_,D58,D33)</f>
         <v>0.997589111328125</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="str">
+        <v>calibr_grav</v>
+      </c>
+      <c r="Y15">
         <v>-3.1883701333512704E-4</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>15</v>
       </c>
-      <c r="Z15" t="str">
-        <v>solve_equation_bisection: done by  15 iterations, tolerance 0.001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2935,20 +2963,20 @@
         <v>46</v>
       </c>
       <c r="W18" t="str">
-        <f t="array" ref="W18:AH19">[1]!MF_calibr_pipe(Q_,fw_,C58,E33,E58,PVRstr1_,theta_,id_,Hydr_corr_,F33,F58)</f>
+        <f t="array" ref="W18:AH19">[1]!MF_calibr_pipe(Q_,fw_,C58,E33,E58,1,PVRstr1_,theta_,id_,Hydr_corr_,F33,F58)</f>
         <v>no solution</v>
       </c>
-      <c r="X18">
-        <v>0</v>
+      <c r="X18" t="str">
+        <v>calibr_grav</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
-      <c r="Z18" t="str">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="str">
         <v>solve_equation_bisection: values at segment's ends must have a different sign</v>
-      </c>
-      <c r="AA18" t="e">
-        <v>#N/A</v>
       </c>
       <c r="AB18" t="e">
         <v>#N/A</v>
@@ -2983,19 +3011,19 @@
         <v>3</v>
       </c>
       <c r="W19" t="str">
-        <v>no solution</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
+        <v>solution</v>
+      </c>
+      <c r="X19" t="str">
+        <v>cal_type</v>
+      </c>
+      <c r="Y19" t="str">
+        <v>y_solution</v>
       </c>
       <c r="Z19" t="str">
-        <v>solve_equation_bisection: values at segment's ends must have a different sign</v>
-      </c>
-      <c r="AA19" t="e">
-        <v>#N/A</v>
+        <v>iterations</v>
+      </c>
+      <c r="AA19" t="str">
+        <v>description</v>
       </c>
       <c r="AB19" t="e">
         <v>#N/A</v>
@@ -3052,31 +3080,6 @@
       <c r="D22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W22" cm="1">
-        <f t="array" ref="W22:AD23">[1]!MF_p_pipe_atma(Q_,fw_,C38-l0_,88,1,PVRstr1_,theta_,id_,Hydr_corr_,$D$33,D38,,,,Q_gas_free_)</f>
-        <v>49.514724635313293</v>
-      </c>
-      <c r="X22">
-        <v>40</v>
-      </c>
-      <c r="Y22">
-        <v>88</v>
-      </c>
-      <c r="Z22">
-        <v>30</v>
-      </c>
-      <c r="AA22">
-        <v>49.514724635313293</v>
-      </c>
-      <c r="AB22">
-        <v>40</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AD22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="1:34" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
@@ -3087,30 +3090,6 @@
       </c>
       <c r="D23" s="9" t="s">
         <v>33</v>
-      </c>
-      <c r="W23" t="str">
-        <v>p_calc_atma</v>
-      </c>
-      <c r="X23" t="str">
-        <v>t_calc_C</v>
-      </c>
-      <c r="Y23" t="str">
-        <v>p_in_atma</v>
-      </c>
-      <c r="Z23" t="str">
-        <v>t_in_C</v>
-      </c>
-      <c r="AA23" t="str">
-        <v>p_out_atma</v>
-      </c>
-      <c r="AB23" t="str">
-        <v>t_out_C</v>
-      </c>
-      <c r="AC23" t="str">
-        <v>c_calibr_grav</v>
-      </c>
-      <c r="AD23" t="str">
-        <v>c_calibr_fric</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="15" x14ac:dyDescent="0.25">
